--- a/Data/Reports/CTD COMPANHIA DE TECNOLOGIA DIGITAL.xlsx
+++ b/Data/Reports/CTD COMPANHIA DE TECNOLOGIA DIGITAL.xlsx
@@ -1457,13 +1457,33 @@
       <c r="BT3" s="1" t="n"/>
     </row>
     <row r="4" ht="15.95" customHeight="1" s="18">
-      <c r="A4" s="32" t="n"/>
+      <c r="A4" s="32" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
       <c r="B4" s="32" t="n"/>
       <c r="C4" s="32" t="n"/>
-      <c r="D4" s="32" t="n"/>
-      <c r="E4" s="49" t="n"/>
-      <c r="F4" s="49" t="n"/>
-      <c r="G4" s="89" t="n"/>
+      <c r="D4" s="32" t="inlineStr">
+        <is>
+          <t>209870620145040</t>
+        </is>
+      </c>
+      <c r="E4" s="49" t="inlineStr">
+        <is>
+          <t>CTD COMPANHIA DE TECNOLOGIA DIGITAL</t>
+        </is>
+      </c>
+      <c r="F4" s="49" t="inlineStr">
+        <is>
+          <t>MAURICIO GARCIA CORREA</t>
+        </is>
+      </c>
+      <c r="G4" s="89" t="inlineStr">
+        <is>
+          <t>2.777,81</t>
+        </is>
+      </c>
       <c r="H4" s="34" t="n"/>
       <c r="I4" s="32" t="n"/>
       <c r="J4" s="32" t="n"/>
@@ -1488,11 +1508,27 @@
       <c r="AC4" s="38" t="n"/>
       <c r="AD4" s="38" t="n"/>
       <c r="AE4" s="38" t="n"/>
-      <c r="AF4" s="90" t="n"/>
-      <c r="AG4" s="90" t="n"/>
-      <c r="AH4" s="32" t="n"/>
+      <c r="AF4" s="90" t="inlineStr">
+        <is>
+          <t>00463000002067</t>
+        </is>
+      </c>
+      <c r="AG4" s="90" t="inlineStr">
+        <is>
+          <t>00000042078</t>
+        </is>
+      </c>
+      <c r="AH4" s="32" t="inlineStr">
+        <is>
+          <t>31/08/2015</t>
+        </is>
+      </c>
       <c r="AI4" s="32" t="n"/>
-      <c r="AJ4" s="32" t="n"/>
+      <c r="AJ4" s="32" t="inlineStr">
+        <is>
+          <t>12823024710</t>
+        </is>
+      </c>
       <c r="AK4" s="32" t="n"/>
       <c r="AL4" s="32" t="n"/>
       <c r="AM4" s="32" t="n"/>
@@ -1530,13 +1566,33 @@
       <c r="BT4" s="1" t="n"/>
     </row>
     <row r="5" ht="15.95" customHeight="1" s="18">
-      <c r="A5" s="32" t="n"/>
+      <c r="A5" s="32" t="inlineStr">
+        <is>
+          <t>00005</t>
+        </is>
+      </c>
       <c r="B5" s="32" t="n"/>
       <c r="C5" s="32" t="n"/>
-      <c r="D5" s="32" t="n"/>
-      <c r="E5" s="49" t="n"/>
-      <c r="F5" s="49" t="n"/>
-      <c r="G5" s="89" t="n"/>
+      <c r="D5" s="32" t="inlineStr">
+        <is>
+          <t>200777320145040</t>
+        </is>
+      </c>
+      <c r="E5" s="49" t="inlineStr">
+        <is>
+          <t>CTD COMPANHIA DE TECNOLOGIA DIGITAL</t>
+        </is>
+      </c>
+      <c r="F5" s="49" t="inlineStr">
+        <is>
+          <t>RONALDO CESAR AVILA MADRUGA</t>
+        </is>
+      </c>
+      <c r="G5" s="89" t="inlineStr">
+        <is>
+          <t>7.223,22</t>
+        </is>
+      </c>
       <c r="H5" s="34" t="n"/>
       <c r="I5" s="32" t="n"/>
       <c r="J5" s="32" t="n"/>
@@ -1561,11 +1617,27 @@
       <c r="AC5" s="38" t="n"/>
       <c r="AD5" s="38" t="n"/>
       <c r="AE5" s="38" t="n"/>
-      <c r="AF5" s="90" t="n"/>
-      <c r="AG5" s="90" t="n"/>
-      <c r="AH5" s="32" t="n"/>
+      <c r="AF5" s="90" t="inlineStr">
+        <is>
+          <t>00463000002067</t>
+        </is>
+      </c>
+      <c r="AG5" s="90" t="inlineStr">
+        <is>
+          <t>00000042582</t>
+        </is>
+      </c>
+      <c r="AH5" s="32" t="inlineStr">
+        <is>
+          <t>01/03/2010</t>
+        </is>
+      </c>
       <c r="AI5" s="32" t="n"/>
-      <c r="AJ5" s="32" t="n"/>
+      <c r="AJ5" s="32" t="inlineStr">
+        <is>
+          <t>12847547705</t>
+        </is>
+      </c>
       <c r="AK5" s="32" t="n"/>
       <c r="AL5" s="32" t="n"/>
       <c r="AM5" s="32" t="n"/>
